--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="831">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="831">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30636,7 +30636,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30654,7 +30654,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30726,7 +30726,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30755,7 +30755,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>90</v>
@@ -30770,7 +30770,7 @@
         <v>90</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>90</v>
@@ -32046,10 +32046,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32064,7 +32064,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32076,7 +32076,7 @@
         <v>90</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>90</v>
@@ -32121,10 +32121,10 @@
         <v>90</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>90</v>
@@ -32133,7 +32133,7 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32617,13 +32617,13 @@
         <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>90</v>
@@ -32653,13 +32653,13 @@
         <v>90</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32674,7 +32674,7 @@
         <v>90</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>90</v>
@@ -32704,10 +32704,10 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>90</v>
@@ -32733,13 +32733,13 @@
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>90</v>
@@ -32751,10 +32751,10 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>90</v>
@@ -32763,13 +32763,13 @@
         <v>90</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>90</v>
@@ -32778,10 +32778,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32790,7 +32790,7 @@
         <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>90</v>
@@ -32805,16 +32805,16 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>90</v>
@@ -32823,7 +32823,7 @@
         <v>90</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -32962,7 +32962,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -32974,7 +32974,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33016,7 +33016,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33031,7 +33031,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33046,7 +33046,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33135,7 +33135,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33316,7 +33316,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
@@ -33325,34 +33325,34 @@
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
@@ -33361,7 +33361,7 @@
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33373,7 +33373,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33397,10 +33397,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33409,10 +33409,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26">
@@ -33426,7 +33426,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33492,10 +33492,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33661,43 +33661,43 @@
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
@@ -33709,7 +33709,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33718,7 +33718,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33730,13 +33730,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33745,13 +33745,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -34087,10 +34087,10 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="AG31" s="5" t="s">
         <v>90</v>
@@ -34682,7 +34682,7 @@
         <v>90</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>90</v>
@@ -34928,115 +34928,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40">
@@ -35044,115 +35044,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35160,115 +35160,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>495</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>539</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>567</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>595</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>623</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>661</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>698</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>735</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>754</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>794</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>820</v>
       </c>
     </row>
     <row r="42">
